--- a/datas/input.xlsx
+++ b/datas/input.xlsx
@@ -8,13 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="ValidLoginLogout" sheetId="1" r:id="rId1"/>
+    <sheet name="InvalidLogin" sheetId="2" r:id="rId2"/>
+    <sheet name="VerifyVersion" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t>UserName</t>
   </si>
@@ -31,13 +33,28 @@
     <t>manager</t>
   </si>
   <si>
-    <t>actitime-Enter- Time- Track</t>
-  </si>
-  <si>
-    <t>actiTIME-Login</t>
-  </si>
-  <si>
     <t>HomePage</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>xyz</t>
+  </si>
+  <si>
+    <t>damager</t>
+  </si>
+  <si>
+    <t>bhanu</t>
+  </si>
+  <si>
+    <t>actiTIME - Enter Time-Track</t>
+  </si>
+  <si>
+    <t>actiTIME - Login</t>
   </si>
 </sst>
 </file>
@@ -382,7 +399,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -401,7 +418,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -415,10 +432,101 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
